--- a/Excel Roadmap.xlsx
+++ b/Excel Roadmap.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16787\Documents\GitHub\Excel-Python-Playing-Together\My Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16787\Documents\GitHub\Excel-Python-Playing-Together\Excel-Python-Playing-Together\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7C7272-0B5C-4AFB-A4CF-374F37657C07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A27D52-C879-40FB-84FF-EE94183B5CBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E86188F8-1417-4785-B650-C44A8F48BD00}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Create Git Hub project account</t>
   </si>
@@ -76,6 +76,9 @@
   <si>
     <t>Description</t>
   </si>
+  <si>
+    <t>Skip - time</t>
+  </si>
 </sst>
 </file>
 
@@ -91,6 +94,7 @@
     </font>
     <font>
       <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -144,7 +148,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
@@ -152,7 +156,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -180,11 +184,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -212,7 +216,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9BBE2F5-A93E-4DCD-A3F4-7586759A080D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -298,7 +302,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7DE26BB-7A88-47C9-96AB-EA5B0F0FEBF2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -384,7 +388,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{498054E1-EE9A-42F5-A6D1-92C523CE2027}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -470,7 +474,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91E516B4-7229-4D81-AF3F-B50AF0E8E012}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -556,7 +560,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED376D84-1934-4C5E-84AC-CC2D26DF936C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -642,7 +646,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F72FB02-EE30-42B0-B8E3-C97D1B3A1763}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -728,7 +732,7 @@
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D59020C-0B85-46E6-B57B-74A40C74B07B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -814,7 +818,7 @@
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58DA7C16-0A62-42C6-ADAA-307A5DB2CC4C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -900,7 +904,7 @@
                   <a14:compatExt spid="_x0000_s1033"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9844E7BF-35B4-40AD-A483-71C2AC2AE5FA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -986,7 +990,7 @@
                   <a14:compatExt spid="_x0000_s1034"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{585FD379-2CB9-49C1-A156-EA8D837C75E9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1072,7 +1076,7 @@
                   <a14:compatExt spid="_x0000_s1035"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DCD1168-BF1F-4F0B-AB4D-A73B4A6197D4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1158,7 +1162,7 @@
                   <a14:compatExt spid="_x0000_s1036"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE80DA59-6DE9-4B37-8EEE-FF0A73F60D5A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1244,7 +1248,7 @@
                   <a14:compatExt spid="_x0000_s1037"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{258A45E5-B382-4CBD-B4FF-02C412BC2E9A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1610,13 +1614,13 @@
   <dimension ref="B1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
@@ -1676,21 +1680,33 @@
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>43943</v>
+      </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>43943</v>
+      </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>43943</v>
+      </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
@@ -1701,20 +1717,24 @@
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>43943</v>
+      </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1025" r:id="rId3" name="Check Box 1">
+            <control shapeId="1025" r:id="rId4" name="Check Box 1">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -1736,7 +1756,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1026" r:id="rId4" name="Check Box 2">
+            <control shapeId="1026" r:id="rId5" name="Check Box 2">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -1758,7 +1778,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1027" r:id="rId5" name="Check Box 3">
+            <control shapeId="1027" r:id="rId6" name="Check Box 3">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -1780,7 +1800,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1028" r:id="rId6" name="Check Box 4">
+            <control shapeId="1028" r:id="rId7" name="Check Box 4">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -1802,7 +1822,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1029" r:id="rId7" name="Check Box 5">
+            <control shapeId="1029" r:id="rId8" name="Check Box 5">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -1824,7 +1844,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1030" r:id="rId8" name="Check Box 6">
+            <control shapeId="1030" r:id="rId9" name="Check Box 6">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -1846,7 +1866,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1031" r:id="rId9" name="Check Box 7">
+            <control shapeId="1031" r:id="rId10" name="Check Box 7">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -1868,7 +1888,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1032" r:id="rId10" name="Check Box 8">
+            <control shapeId="1032" r:id="rId11" name="Check Box 8">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -1890,7 +1910,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1033" r:id="rId11" name="Check Box 9">
+            <control shapeId="1033" r:id="rId12" name="Check Box 9">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -1912,7 +1932,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1034" r:id="rId12" name="Check Box 10">
+            <control shapeId="1034" r:id="rId13" name="Check Box 10">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -1934,7 +1954,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1035" r:id="rId13" name="Check Box 11">
+            <control shapeId="1035" r:id="rId14" name="Check Box 11">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -1956,7 +1976,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1036" r:id="rId14" name="Check Box 12">
+            <control shapeId="1036" r:id="rId15" name="Check Box 12">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -1978,7 +1998,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1037" r:id="rId15" name="Check Box 13">
+            <control shapeId="1037" r:id="rId16" name="Check Box 13">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>

--- a/Excel Roadmap.xlsx
+++ b/Excel Roadmap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16787\Documents\GitHub\Excel-Python-Playing-Together\Excel-Python-Playing-Together\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A27D52-C879-40FB-84FF-EE94183B5CBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27363A65-8EC2-47DF-B422-4A949DF57067}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E86188F8-1417-4785-B650-C44A8F48BD00}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Create Git Hub project account</t>
   </si>
@@ -78,6 +78,15 @@
   </si>
   <si>
     <t>Skip - time</t>
+  </si>
+  <si>
+    <t>Gathered actual raw data file (My_Test_Data.xlsx)</t>
+  </si>
+  <si>
+    <t>Created Line charts from actual raw data (line_chart.xlsx)</t>
+  </si>
+  <si>
+    <t>Find code to format charts more( Bold font, Modfiy legend, add labels etc)</t>
   </si>
 </sst>
 </file>
@@ -159,8 +168,36 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1308,6 +1345,573 @@
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>238125</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1038" name="Check Box 14" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1038"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FB11051-CA97-4BBE-8BC7-C582D6DC748D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t> Complete</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>238125</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1039" name="Check Box 15" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1039"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F51F4109-CE88-45F4-B6EB-E9934411B4F9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t> Complete</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>238125</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1040" name="Check Box 16" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1040"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{258DE6F0-BE86-4CC7-8A58-174DD2E89350}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t> Complete</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>238125</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1041" name="Check Box 17" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1041"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD686FC3-CFCB-4ACA-969F-35D3D3366604}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t> Complete</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>238125</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1042" name="Check Box 18" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1042"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B76C0021-96A0-4C6E-A808-90AF5AA3ADEE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t> Complete</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>238125</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1043" name="Check Box 19" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1043"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD167A99-2C93-4C93-8883-597CCE82FB4F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t> Complete</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>238125</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1044" name="Check Box 20" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1044"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EDABCAC-F81D-4195-8F72-0998558F6D75}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t> Complete</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -1611,10 +2215,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{004CAB02-D990-4AF4-B4CA-CB334C5D07F5}">
-  <dimension ref="B1:C13"/>
+  <dimension ref="B1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1722,6 +2326,27 @@
       </c>
       <c r="C13" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>43943</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>43944</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2018,6 +2643,160 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1038" r:id="rId17" name="Check Box 14">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>238125</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>1038225</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1039" r:id="rId18" name="Check Box 15">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>238125</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>1038225</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1040" r:id="rId19" name="Check Box 16">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>238125</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>1038225</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1041" r:id="rId20" name="Check Box 17">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>238125</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>1038225</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1042" r:id="rId21" name="Check Box 18">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>238125</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>1038225</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1043" r:id="rId22" name="Check Box 19">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>238125</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>1038225</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1044" r:id="rId23" name="Check Box 20">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>238125</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>1038225</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
